--- a/medicine/Soins infirmiers et profession infirmière/Floralba_Rondi/Floralba_Rondi.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Floralba_Rondi/Floralba_Rondi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Luigia Rosina Rondi, en religion sœur Floralba Rondi, née le 10 décembre 1924 à Pedrengo en Italie, morte le 25 avril 1995 à Mosango en République démocratique du Congo, est une religieuse et infirmière italienne.
 « Martyre de la charité » en contractant la maladie Ebola auprès de ceux qu'elle soignait, elle est reconnue vénérable par le pape François en 2021. Elle est fêtée le 25 avril.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luigia Rosina Rondi naît le 10 décembre 1924 à Pedrengo en Italie[1],[2]. Elle est d'une famille modeste. Orpheline de mère à quinze ans, elle s'occupe alors de la maison[2]. Dès sa jeunesse, Luigia Rondi ressent le désir de devenir religieuse et missionnaire[2].
-Elle entre chez les Sœurs des pauvres de Bergame, et y prononce ses vœux religieux sous le nom de « sœur Floralba »[2]. Elle est choisie en 1952 pour être du premier groupe de religieuses de son ordre envoyées au Congo belge de l'époque. Elle y sert pendant quarante-trois ans, en tant qu'infirmière puis infirmière-chef[2],[3].
-Sœur Floralba collabore à l'opération d'un patient atteint d'une maladie grave et inconnue, qui s'avérera être la maladie à virus Ebola[2]. Atteinte à son tour, elle en meurt à 71 ans le 25 avril 1995, à Mosango[2], situé à 120 km à l'ouest de Kikwit qui est alors l'épicentre d'Ebola dans le pays[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luigia Rosina Rondi naît le 10 décembre 1924 à Pedrengo en Italie,. Elle est d'une famille modeste. Orpheline de mère à quinze ans, elle s'occupe alors de la maison. Dès sa jeunesse, Luigia Rondi ressent le désir de devenir religieuse et missionnaire.
+Elle entre chez les Sœurs des pauvres de Bergame, et y prononce ses vœux religieux sous le nom de « sœur Floralba ». Elle est choisie en 1952 pour être du premier groupe de religieuses de son ordre envoyées au Congo belge de l'époque. Elle y sert pendant quarante-trois ans, en tant qu'infirmière puis infirmière-chef,.
+Sœur Floralba collabore à l'opération d'un patient atteint d'une maladie grave et inconnue, qui s'avérera être la maladie à virus Ebola. Atteinte à son tour, elle en meurt à 71 ans le 25 avril 1995, à Mosango, situé à 120 km à l'ouest de Kikwit qui est alors l'épicentre d'Ebola dans le pays.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Procédure en béatification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La procédure pour la béatification éventuelle de sœur Floralba Rondi est ouverte le 28 avril 2013 au niveau du diocèse de Kikwit et reçoit la même année l'avis du Saint-Siège indiquant que rien ne s'oppose à cette enquête. Une autre enquête diocésaine est ouverte dans le diocèse de Bergame. Les enquêtes diocésaines sont closes en 2014. Le dossier est transmis à Rome auprès de la Congrégation pour les causes des saints[2].
-La Positio sur les vertus de sœur Floralba Rondi est terminée en février 2018 et examinée en juin 2020 par la commission théologique[2].
-Le pape François approuve le 20 février 2021 la reconnaissance de l'héroïcité de ses vertus et la reconnaît ainsi vénérable[2],[1],[3]. Sa fête est le 25 avril[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La procédure pour la béatification éventuelle de sœur Floralba Rondi est ouverte le 28 avril 2013 au niveau du diocèse de Kikwit et reçoit la même année l'avis du Saint-Siège indiquant que rien ne s'oppose à cette enquête. Une autre enquête diocésaine est ouverte dans le diocèse de Bergame. Les enquêtes diocésaines sont closes en 2014. Le dossier est transmis à Rome auprès de la Congrégation pour les causes des saints.
+La Positio sur les vertus de sœur Floralba Rondi est terminée en février 2018 et examinée en juin 2020 par la commission théologique.
+Le pape François approuve le 20 février 2021 la reconnaissance de l'héroïcité de ses vertus et la reconnaît ainsi vénérable. Sa fête est le 25 avril.
 </t>
         </is>
       </c>
